--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -40,20 +40,31 @@
     <t>manager123</t>
   </si>
   <si>
-    <t>HomePageTitle</t>
-  </si>
-  <si>
-    <t>actiTIME - Enter Time-Track</t>
+    <t>kakanungo@goalsr.com</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Expected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,13 +87,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -363,98 +380,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="2">
+        <v>103153</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
